--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quantumhti.sharepoint.com/sites/company/Shared Documents/Quantum Integration/Engineering/Quantum Hardware/DIY Kits/Q-PCB-002/Joystick Rev I copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quantumhti.sharepoint.com/sites/company/Shared Documents/Quantum Integration/Engineering/Quantum Hardware/DIY Kits/Q-PCB-002/Joystick Rev J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{32B14150-9E5F-AC4A-BF55-44CE068F5674}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{298418DE-7BA6-8B44-97EF-73ED445B7861}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{32B14150-9E5F-AC4A-BF55-44CE068F5674}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EA935287-C2FF-7F42-9356-57A56C57C266}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{C13DC752-D131-174E-90D2-7132CC4F6FD6}"/>
+    <workbookView xWindow="55640" yWindow="2260" windowWidth="25600" windowHeight="28300" xr2:uid="{C13DC752-D131-174E-90D2-7132CC4F6FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>Index</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>M2.5 Nut</t>
+  </si>
+  <si>
+    <t>220n</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,7 +874,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1539,18 +1542,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1573,26 +1576,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97A56E2E-58E2-4914-A981-CC308022DEE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="97031774-c0c7-48a9-a8e1-3722ddd0f879"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a32bd177-85eb-4316-9671-26122bedec74"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C61308E8-F615-4FF7-99AB-528625DEEF54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97A56E2E-58E2-4914-A981-CC308022DEE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="97031774-c0c7-48a9-a8e1-3722ddd0f879"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a32bd177-85eb-4316-9671-26122bedec74"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>